--- a/biology/Zoologie/Anoura_fistulata/Anoura_fistulata.xlsx
+++ b/biology/Zoologie/Anoura_fistulata/Anoura_fistulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoura fistulata est une espèce de chauve-souris glossophage décrite en 2005. Elle joue un rôle actif dans la pollinisation de certaines plantes dans les Andes, en Équateur. Sa langue peut atteindre 6 à 8,5 cm, soit une fois et demie la longueur de son corps.
 D'après Nathan Muchhala, de l'université de Miami (Floride), l'un des descripteurs de l'espèce, la langue de ce mammifère est tellement longue qu'elle part d'une cavité située entre le cœur et le sternum.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Muchhala, N., Mena V, P. &amp; Albuja, V, L. 2005. A new species of Anoura (Chiroptera: Phyllostomidae) from the Ecuadorian Andes. Journal of Mammalogy 86(3):457-461.</t>
         </is>
